--- a/src/main/java/com/qa/hubspot/testdata/ContactsData.xlsx
+++ b/src/main/java/com/qa/hubspot/testdata/ContactsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SumanFramework\HubSpot\src\main\java\com\qa\hubspot\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE6DF0A-3EAE-4BB6-858E-CFB5EA2A5270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42C15E-C795-4293-BD00-77F5EB004922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{33EBB48F-2501-49B4-8D02-2071033114AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{33EBB48F-2501-49B4-8D02-2071033114AC}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>emailid</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>testCompany4</t>
+  </si>
+  <si>
+    <t>Deal1</t>
+  </si>
+  <si>
+    <t>Deal2</t>
+  </si>
+  <si>
+    <t>Deal3</t>
+  </si>
+  <si>
+    <t>Deal4</t>
   </si>
 </sst>
 </file>
@@ -651,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554443FB-CA7B-4DA9-BC4C-FBE7E275D0B4}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -664,25 +674,26 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -691,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85B59FA-2E3C-451E-8B1B-E197CC554C7C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
